--- a/www/IndicatorsPerCountry/Pakistan_GDPperCapita_TerritorialRef_1971_2012_CCode_586.xlsx
+++ b/www/IndicatorsPerCountry/Pakistan_GDPperCapita_TerritorialRef_1971_2012_CCode_586.xlsx
@@ -243,13 +243,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Pakistan_GDPperCapita_TerritorialRef_1971_2012_CCode_586.xlsx
+++ b/www/IndicatorsPerCountry/Pakistan_GDPperCapita_TerritorialRef_1971_2012_CCode_586.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,184 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>635</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>669</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>723</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>854</t>
-  </si>
-  <si>
-    <t>885</t>
-  </si>
-  <si>
-    <t>952</t>
-  </si>
-  <si>
-    <t>931</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>954</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>978</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>1079</t>
-  </si>
-  <si>
-    <t>1087</t>
-  </si>
-  <si>
-    <t>1161</t>
-  </si>
-  <si>
-    <t>1207</t>
-  </si>
-  <si>
-    <t>1256</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>1321</t>
-  </si>
-  <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>1444</t>
-  </si>
-  <si>
-    <t>1483</t>
-  </si>
-  <si>
-    <t>1532</t>
-  </si>
-  <si>
-    <t>1560</t>
-  </si>
-  <si>
-    <t>1588.16208722</t>
-  </si>
-  <si>
-    <t>1629.46838325</t>
-  </si>
-  <si>
-    <t>1707.56515103</t>
-  </si>
-  <si>
-    <t>1707.83405135</t>
-  </si>
-  <si>
-    <t>1739.0412919</t>
-  </si>
-  <si>
-    <t>1780.24382963</t>
-  </si>
-  <si>
-    <t>1846.45513676</t>
-  </si>
-  <si>
-    <t>1830.97120687</t>
-  </si>
-  <si>
-    <t>1849.95499176</t>
-  </si>
-  <si>
-    <t>1882.472218</t>
-  </si>
-  <si>
-    <t>1904.10660015</t>
-  </si>
-  <si>
-    <t>1887.49533111</t>
-  </si>
-  <si>
-    <t>1903.9883926</t>
-  </si>
-  <si>
-    <t>1958.58071518</t>
-  </si>
-  <si>
-    <t>2066.4621027</t>
-  </si>
-  <si>
-    <t>2210.9484287</t>
-  </si>
-  <si>
-    <t>2297.48113678</t>
-  </si>
-  <si>
-    <t>2410.40777299</t>
-  </si>
-  <si>
-    <t>2457.32358846</t>
-  </si>
-  <si>
-    <t>2458.56900211</t>
-  </si>
-  <si>
-    <t>2493.54298196</t>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>1484</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>1851</t>
+  </si>
+  <si>
+    <t>1924</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2364</t>
+  </si>
+  <si>
+    <t>2442</t>
+  </si>
+  <si>
+    <t>2487</t>
+  </si>
+  <si>
+    <t>2531</t>
+  </si>
+  <si>
+    <t>2644.57421556903</t>
+  </si>
+  <si>
+    <t>2732.38162109905</t>
+  </si>
+  <si>
+    <t>2777.33203198315</t>
+  </si>
+  <si>
+    <t>2855.90619647847</t>
+  </si>
+  <si>
+    <t>2947.68262621299</t>
+  </si>
+  <si>
+    <t>2979.80822550806</t>
+  </si>
+  <si>
+    <t>2986.70556564547</t>
+  </si>
+  <si>
+    <t>3035.45170157769</t>
+  </si>
+  <si>
+    <t>3111.95857036277</t>
+  </si>
+  <si>
+    <t>3154.51158006955</t>
+  </si>
+  <si>
+    <t>3176.94677658726</t>
+  </si>
+  <si>
+    <t>3265.68661537707</t>
+  </si>
+  <si>
+    <t>3437.9918213429</t>
+  </si>
+  <si>
+    <t>3664.53343212702</t>
+  </si>
+  <si>
+    <t>3883.93451491353</t>
+  </si>
+  <si>
+    <t>4062.66645699341</t>
+  </si>
+  <si>
+    <t>4160.36516936913</t>
+  </si>
+  <si>
+    <t>4224.40480371735</t>
+  </si>
+  <si>
+    <t>4288.46181926384</t>
+  </si>
+  <si>
+    <t>4354.26695082655</t>
+  </si>
+  <si>
+    <t>4464</t>
+  </si>
+  <si>
+    <t>4569</t>
+  </si>
+  <si>
+    <t>4703</t>
+  </si>
+  <si>
+    <t>4850</t>
+  </si>
+  <si>
+    <t>5030</t>
+  </si>
+  <si>
+    <t>5223</t>
   </si>
   <si>
     <t>Description</t>
@@ -1354,6 +1372,108 @@
         <v>66</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1369,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
